--- a/control/report/testcase-xml-report.xlsx
+++ b/control/report/testcase-xml-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>用例编号</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>断言不通过接口没有此值：presupposition,接口没有此值：smallVipUrl,对比格式通过</t>
-  </si>
-  <si>
-    <t>API_002</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,88 +614,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
